--- a/input.xlsx
+++ b/input.xlsx
@@ -1,34 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Output" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Output" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,14 +63,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -121,6 +168,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,89 +475,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.424285714285714" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5">
+        <v>-2</v>
+      </c>
+      <c r="B5">
+        <v>4.50</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
+      <c r="B10">
+        <v>-32</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11">
+        <v>-4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -511,18 +611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.424285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
